--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H2">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I2">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J2">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N2">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O2">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P2">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q2">
-        <v>699.4872417617779</v>
+        <v>164.3929152976623</v>
       </c>
       <c r="R2">
-        <v>6295.385175856001</v>
+        <v>1479.536237678961</v>
       </c>
       <c r="S2">
-        <v>0.06208649796669079</v>
+        <v>0.02206147902587982</v>
       </c>
       <c r="T2">
-        <v>0.06208649796669079</v>
+        <v>0.02206147902587982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H3">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I3">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J3">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q3">
-        <v>1878.267714013986</v>
+        <v>863.2344214011885</v>
       </c>
       <c r="R3">
-        <v>16904.40942612588</v>
+        <v>7769.109792610696</v>
       </c>
       <c r="S3">
-        <v>0.1667150701895797</v>
+        <v>0.1158457957125275</v>
       </c>
       <c r="T3">
-        <v>0.1667150701895797</v>
+        <v>0.1158457957125275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H4">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I4">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J4">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N4">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q4">
-        <v>850.4334282268777</v>
+        <v>430.4245467706353</v>
       </c>
       <c r="R4">
-        <v>7653.900854041899</v>
+        <v>3873.820920935718</v>
       </c>
       <c r="S4">
-        <v>0.07548448371899825</v>
+        <v>0.05776284272111346</v>
       </c>
       <c r="T4">
-        <v>0.07548448371899825</v>
+        <v>0.05776284272111347</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H5">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I5">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J5">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N5">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q5">
-        <v>2686.702717208589</v>
+        <v>1022.017726976248</v>
       </c>
       <c r="R5">
-        <v>24180.3244548773</v>
+        <v>9198.15954278623</v>
       </c>
       <c r="S5">
-        <v>0.2384717730790048</v>
+        <v>0.1371544668268589</v>
       </c>
       <c r="T5">
-        <v>0.2384717730790048</v>
+        <v>0.1371544668268589</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>38.065128</v>
       </c>
       <c r="I6">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J6">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N6">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O6">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P6">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q6">
-        <v>403.8381874807467</v>
+        <v>206.5092110359226</v>
       </c>
       <c r="R6">
-        <v>3634.543687326721</v>
+        <v>1858.582899323304</v>
       </c>
       <c r="S6">
-        <v>0.03584468351809406</v>
+        <v>0.027713473051261</v>
       </c>
       <c r="T6">
-        <v>0.03584468351809407</v>
+        <v>0.027713473051261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>38.065128</v>
       </c>
       <c r="I7">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J7">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q7">
         <v>1084.388940848387</v>
@@ -883,10 +883,10 @@
         <v>9759.500467635482</v>
       </c>
       <c r="S7">
-        <v>0.0962503784937</v>
+        <v>0.1455246646797735</v>
       </c>
       <c r="T7">
-        <v>0.0962503784937</v>
+        <v>0.1455246646797735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>38.065128</v>
       </c>
       <c r="I8">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J8">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N8">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q8">
-        <v>490.9846437844586</v>
+        <v>540.6962544775946</v>
       </c>
       <c r="R8">
-        <v>4418.861794060128</v>
+        <v>4866.266290298352</v>
       </c>
       <c r="S8">
-        <v>0.04357980427380242</v>
+        <v>0.07256127221742173</v>
       </c>
       <c r="T8">
-        <v>0.04357980427380242</v>
+        <v>0.07256127221742174</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>38.065128</v>
       </c>
       <c r="I9">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J9">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N9">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q9">
-        <v>1551.126440682997</v>
+        <v>1283.851400046272</v>
       </c>
       <c r="R9">
-        <v>13960.13796614698</v>
+        <v>11554.66260041645</v>
       </c>
       <c r="S9">
-        <v>0.1376780059104254</v>
+        <v>0.1722924657865109</v>
       </c>
       <c r="T9">
-        <v>0.1376780059104254</v>
+        <v>0.1722924657865109</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H10">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I10">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J10">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N10">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O10">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P10">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q10">
-        <v>121.5240024827734</v>
+        <v>76.83673295025078</v>
       </c>
       <c r="R10">
-        <v>1093.71602234496</v>
+        <v>691.530596552257</v>
       </c>
       <c r="S10">
-        <v>0.01078647226509445</v>
+        <v>0.01031146609529828</v>
       </c>
       <c r="T10">
-        <v>0.01078647226509445</v>
+        <v>0.01031146609529827</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H11">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I11">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J11">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q11">
-        <v>326.3170458495434</v>
+        <v>403.4730608102462</v>
       </c>
       <c r="R11">
-        <v>2936.85341264589</v>
+        <v>3631.257547292215</v>
       </c>
       <c r="S11">
-        <v>0.02896390583566078</v>
+        <v>0.0541459615364541</v>
       </c>
       <c r="T11">
-        <v>0.02896390583566078</v>
+        <v>0.05414596153645408</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H12">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I12">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J12">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N12">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q12">
-        <v>147.7483331689893</v>
+        <v>201.1790830253518</v>
       </c>
       <c r="R12">
-        <v>1329.734998520904</v>
+        <v>1810.611747228166</v>
       </c>
       <c r="S12">
-        <v>0.01311414424625416</v>
+        <v>0.02699817150011114</v>
       </c>
       <c r="T12">
-        <v>0.01311414424625416</v>
+        <v>0.02699817150011114</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H13">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I13">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J13">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N13">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q13">
-        <v>466.7688675124187</v>
+        <v>477.6878797721093</v>
       </c>
       <c r="R13">
-        <v>4200.919807611768</v>
+        <v>4299.190917948984</v>
       </c>
       <c r="S13">
-        <v>0.04143041161227353</v>
+        <v>0.06410556757526673</v>
       </c>
       <c r="T13">
-        <v>0.04143041161227353</v>
+        <v>0.06410556757526671</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H14">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I14">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J14">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N14">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O14">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P14">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q14">
-        <v>63.9154825727289</v>
+        <v>46.19374984160689</v>
       </c>
       <c r="R14">
-        <v>575.2393431545601</v>
+        <v>415.743748574462</v>
       </c>
       <c r="S14">
-        <v>0.005673139182348747</v>
+        <v>0.006199187120759342</v>
       </c>
       <c r="T14">
-        <v>0.005673139182348748</v>
+        <v>0.00619918712075934</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H15">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I15">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J15">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q15">
-        <v>171.6262716094906</v>
+        <v>242.5654101009656</v>
       </c>
       <c r="R15">
-        <v>1544.636444485415</v>
+        <v>2183.08869090869</v>
       </c>
       <c r="S15">
-        <v>0.01523355041683852</v>
+        <v>0.03255220395390412</v>
       </c>
       <c r="T15">
-        <v>0.01523355041683852</v>
+        <v>0.03255220395390412</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H16">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I16">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J16">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N16">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q16">
-        <v>77.70815493960488</v>
+        <v>120.9475712697729</v>
       </c>
       <c r="R16">
-        <v>699.3733944564439</v>
+        <v>1088.528141427956</v>
       </c>
       <c r="S16">
-        <v>0.006897376986464292</v>
+        <v>0.01623112712593364</v>
       </c>
       <c r="T16">
-        <v>0.006897376986464292</v>
+        <v>0.01623112712593364</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H17">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I17">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J17">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N17">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q17">
-        <v>245.4968303172164</v>
+        <v>287.1828821098827</v>
       </c>
       <c r="R17">
-        <v>2209.471472854948</v>
+        <v>2584.645938988944</v>
       </c>
       <c r="S17">
-        <v>0.02179030230477002</v>
+        <v>0.03853985507092584</v>
       </c>
       <c r="T17">
-        <v>0.02179030230477002</v>
+        <v>0.03853985507092583</v>
       </c>
     </row>
   </sheetData>
